--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/66_Sakarya_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/66_Sakarya_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC7CB2F4-0C83-4C22-9C3A-9F0E161D9250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9C8E4C6-700B-4F3E-9936-D93993BA9B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F11D33DA-4295-4F01-9C12-FF9846F5D55D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5987DB2E-D32E-47DD-AF57-DEB8435E7ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{EE1C5E49-B4FF-41D3-8EA9-0D7EACB1E84D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{F34D3573-854F-4744-AD16-18879A90146F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{606A26E8-083E-4FF0-BAD3-B47281EFAF79}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{22471328-E2A0-4942-BE7C-AA64EB7A8771}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{FF31BB38-2541-43FD-8447-F48247E4065B}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{01721135-E38D-4933-9E27-7CC55599AD12}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{5C121C13-CDDC-4E9E-A776-46206FC60E78}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{BB916DF5-951D-4CFD-BC52-4FE7B88A999D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDD2D67-D7B7-41A2-9077-DA5BD1931CF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160D6DD8-C757-4C26-AC0A-D247BAF13D25}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2467,18 +2467,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{442D9146-EA0E-4804-9FAF-0246D7D1F46C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7A0B6661-A9B4-43E4-9F3F-AA18839218BA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D68365CF-BD9D-465D-B818-8099926E9DB0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A6EC64C0-71B5-4899-A476-823BEEF58B8F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{57C6C05C-417D-4333-9D77-548F8E4CCA82}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7B9B98D5-E1C9-4866-816A-AEF262E572A2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9AC52EBC-21ED-4625-861A-88714BAAFAC1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6EE09BF8-CAEA-4B75-BA9E-5960D712496F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B850E7F3-0722-42EA-96E9-31AD5B6641DF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0CD83980-4EB7-4CDB-B24D-D237642CA068}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E7033DE3-DA3B-4B80-8950-7B8263479D53}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{86C0F4E8-08AF-41AA-BA08-01EDE032EAAD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{67F8A3D1-71A0-44A8-97A0-330E3FBE0642}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0709BE65-E053-4956-8BFD-02305288BCA7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D2661D3B-0FAB-4B59-9AF1-5242FE96200B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B1B0FA4E-A8F8-4F42-A559-67BBD38DB2D3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{16680B7A-A1F0-473E-A6A9-8880766AC9DA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8B224A15-29D1-40A6-BF75-F1F8D55DF97C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{12EF93E8-A2FA-4244-8F5E-BDB906519CEB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2609369A-49BB-4786-BBF3-D97C5EA8B9EE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5FA4D772-6976-439D-83B0-80C8D91C980C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5A20C9F4-781F-4020-AF7D-C62607458076}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{772ECC5E-6E37-4749-B6D2-C06DB4B6F4B6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{910C6D11-026E-48F7-B611-15538AE1E86A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2491,7 +2491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405212DA-4E4B-45B4-827B-E6A2EC92AD57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F13518-7CCD-49D7-962F-FA6733CB8E9D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3676,18 +3676,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{49482650-9FA1-40CD-B831-C7B88D28C005}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E6E8F0C0-2509-4C5F-A4BA-7D582CBBCEAC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BAD3BD06-2474-4128-93D4-A245A6D407E3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A02A9073-CF76-4258-B1EC-4AE7398122FB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7872132E-CBE4-4586-BFA2-3FE66F974B36}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{60FE6B1D-3CA8-41A6-8B8C-73C0711D919E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7C6E48D9-B37D-4459-9921-EB9305C93314}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EA730F25-ADBE-48E2-9DF1-5C0413285E04}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FC3CF421-9B4F-4AF6-9F6B-3826C30EC9D0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{643F301B-64EC-471F-83A8-4FC231FE2E64}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0F704C5A-A72D-4566-98A4-AEC29D6FE034}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FF934FE2-7D3C-4B62-8928-7916C5D83E5B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AE11E3A5-AC75-4631-95E1-52A0A31995C4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{FCE34256-9FC5-4EEF-B255-80DE7D20E747}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1D458460-195C-43D6-819C-16A76FC2EBC0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F26FFA73-5154-4943-9F8E-D3227608E29D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{377D1F76-53BA-422F-89E5-9A4FBA4811A1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{886DB9B6-CB5F-4821-97C4-41D4E16292FE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4B2F2CF8-EA74-43E4-A69C-C277BA1D049E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{11D88CCD-FD8E-417D-9967-67104ED34A7E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{87D4CCFD-7387-4B25-AB2E-7A79AF3E3B59}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6F2E5A41-8AA5-412F-86DD-5B1CE4713EDE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4B07C8DC-33BD-43B5-83C3-0A79794B0015}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{04590F13-882C-4611-A748-A95BA80BB695}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3700,7 +3700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7891545A-3F5C-4574-965C-1287C985FBDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ECE0C31-B67E-4510-B5D5-D6A0CB6AB886}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4881,18 +4881,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5AAC695A-C9CC-4153-BF7E-79B4BC6A6BB6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{49BE8A67-6A85-44BB-B351-CDFAD5CF57FE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{554A6CD6-70D9-4EA4-B7BB-EA6FB05CC3A8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0F8E59A5-EFF8-4C61-B217-808B93E1C9FA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E9EB92E3-2ED0-412E-95C5-84D00BDD2B44}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0D9829DB-C6DA-4995-BE7F-F6D94D93447C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0CE58099-5E74-4971-B540-37DF051FD16E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9CD6AD2B-A583-45D5-AFA9-564F8A66D6D9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5DE61049-0761-4FF9-9F53-73246F508F9D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1A4C6038-E186-484B-991D-6C30FBFF7149}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C916B98A-1055-4F4C-B230-727F0E3F37C8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CB0C5AF2-D6AA-4226-B903-A3BEC386F254}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{21A7B89A-7D7C-441F-B6A1-2B86E29CD820}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8708571F-950B-4F16-8CD2-FB575D28CC6B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7FC16CAF-454D-417C-A724-6F0C9317475B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{74590350-0647-4497-9AA7-98FF3B68C8D6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{33A3FEF0-5669-473A-AE38-F370FA9AC342}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0A1A91F8-2F45-41DC-85FA-5114963C1B34}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6F5BE135-A654-496B-85EE-E27ECDD631DD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9637D909-DE99-4444-8EE9-929956C94F96}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{ADFE0C1E-F987-4C4B-A2CC-8C15D89F867B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7CDAB799-28F0-4BA7-AC99-433441789E0B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7E13830B-5991-465E-8CBD-A73C2B678C67}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C3EE38CF-C657-4628-8E5D-0D29DF205B98}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4905,7 +4905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD4A9D1-CC4A-4A09-BB7E-D4A40FD3FAE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8CD0AF-8032-4E87-B4A2-16053B618559}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6084,18 +6084,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2615C330-A640-4F37-B0F7-7773180DB331}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B975021B-7D16-462E-B8B3-84E443DB7402}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9B06981D-0717-416F-AEEB-CA1E5FD65E27}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0B9087D7-6FEF-438A-A19F-F3EEE860D192}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F06CFE2B-F5F3-405C-A4FA-C03A806F6090}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{97CF8CC4-B9D3-4E1B-AC12-5C17343B3B1E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FEB584F3-0353-4CFF-B9CF-0C48B636024D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5DD4F783-9723-4DF2-8212-19EC3693A091}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{443C00FF-3AB3-4E34-B38E-89FE0E1F876C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F59BA122-B73D-4F48-86C4-BFD7E210029F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D77C49A9-0CD2-4C83-8C53-02B3326B2E7F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2E7EF603-BF98-4380-817C-6B0C52A27C02}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{36959B4D-794B-4886-B898-554CED53F74E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9D0B7E86-D0A0-4871-BD75-7E14E454EDC6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9AF067BB-AE86-4DC8-89B4-B6D56562A94E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{64D586B2-E9B6-4B57-84E5-22B0087956C0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0E61DAE2-4705-4011-9829-C4ACFA0C4CC6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DA8BAA8C-4CCF-4B23-B0E1-0590F021979A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{572F86E4-181B-41A2-A293-A24907E9332F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{336D9B5A-90FB-40FE-9284-812F7DE34607}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{12859366-6636-4C46-9E0D-24957CF1774E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7AE7AEDE-5525-4F2A-BD12-88309D7D0E47}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{33D813D3-795C-42B8-ACE1-3A0A219CF42F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{99EFB014-C235-472E-967B-43B0B1405F2A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6108,7 +6108,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3492DE-F8C0-487C-98C5-90BA500582C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF3E8F6-0144-421B-A2D7-943BB419E6E7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7339,18 +7339,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F260F2B2-A487-4EFF-8568-C6338148D505}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A30338D8-E648-436F-AB49-E699CEF25D11}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{177E5420-DFA8-4EE4-8EC1-5AA294D2187E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A8A5B8ED-A122-483D-BB66-FBB9C663517E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B219238A-6708-40C3-A478-90FF6EC5DBFB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{40E83CD2-E183-43AE-B6AE-E493FBAC53B5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{84F7FC07-0DDA-4CAC-B025-C963E385509F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{47FD0E7F-05F8-4D3E-89A6-58ADA763AD6A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{96AF111B-2C24-4120-A462-42425E5FCE29}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AC640FEA-7802-4C92-8918-67FEEA01E8C6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DDF57F18-7F96-4CED-B258-B30ABEEFE789}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9F3652AE-3D46-4ADF-9262-2C935B820861}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F3C9AB21-D311-4FFB-9EBB-F46E0BFF25AA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B2E9B0B6-26BD-4099-822F-2073CCC41DE8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1DF88E6C-D05E-4693-A987-506B73BD84FC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EA4FDEA5-A2F0-4FBD-BE20-BA951DEE0D0D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E91F5608-BFB3-456B-B3C5-7BB9321ACFAE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5B03DDCB-3B19-49B7-B2CE-9B74038B42BD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{78567A11-9C1D-4BA6-ADAA-DC83834D2A83}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7623B0FE-77E6-48CE-ADBA-9F4593B3A0FC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7AF2F787-3144-4298-A900-CFFDA7857D24}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B3815E2C-785A-4DAD-BDF9-957C5D6A4E1D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3E4CB7B9-23D9-4EF1-BA3D-26659E7B7126}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{93A8718D-057D-4167-8C6F-E36401C57177}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7363,7 +7363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31BF76-F059-40CC-BDC4-5763DEBA6378}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A577EB-B41D-4DAD-A872-DA25D8FF7D9E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8594,18 +8594,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7C823A48-2B07-4100-B97D-1C8D0FE915F1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DFA49827-F53A-4202-8AA5-3EC8D2357714}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{86E2FBD1-7791-490A-8ED4-238E68BE8505}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{01D2C0BD-0128-4BDA-BA4A-CDF1D435CA1E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7C55A3CB-0B5F-438D-9133-64D2A7AE61B2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6D5C98F2-4CE3-4903-929A-6CF10E1469AA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2642C8C0-D003-49CD-BD95-C41330D2218E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7848FE6A-95C9-4FB4-947F-6660CD7A4F4D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{479C7007-BED2-422B-9B94-71998ECA57EE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{610E00B7-A043-4707-B0B7-44877C31C54C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{012A210D-8BDB-4CAE-9258-1591F6DB1162}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DBEC874A-E3C3-4A3F-819F-57C70BBBAD9D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{92C735B7-5C36-4687-A682-FECE583B107F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8769BA85-A97F-459C-805E-B1182C128313}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{29D8143D-3F22-492F-8993-B3BEF867339E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6A9EB022-5B46-42B5-A5F9-8D77B6B7C6F6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D154039D-6EB0-473B-9570-0F01D6E04049}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{82F1B4E9-8636-4DD5-900B-26BFD71E46E6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{70F4746A-0147-4C84-9A57-A1BC7EE8DE05}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{19CD890B-6E01-4225-81B6-7718EB2CB60A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D78A28B3-B3DF-4418-A7B1-B8F0DE0A06E0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8DB4CCDF-F58D-40BE-9EE9-DFE11A446F67}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{55386ABD-6EEC-43C6-82F2-D23D38E3A29F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F834E347-88A4-4A74-B1A3-059D0DEEF95F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8618,7 +8618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893C4E74-2211-4EF7-9EB8-EE329AF7D537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F56B4C-8C70-4B2F-94E3-DED9B659E071}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9849,18 +9849,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5F6EA34C-94C6-4EF0-AEEB-F6A0410FF07B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{750D689D-0363-4A48-AC61-E4B798B9163F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{054E345B-DC2E-4120-A159-07750393EE68}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D943875D-F4E0-4D74-8550-9F0025B8FB42}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4D2CCDD3-2CAE-4838-B4F3-EEE27F2840BF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{96F22D14-FC5D-4ABD-B91D-C026D74A859F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C01ADD96-D428-4F7C-9FC6-09539150172D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{29B0858D-2C08-454E-9E55-AECF9CD29628}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3D2D15FD-4736-45D5-A143-0D951B34C749}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{52770A8D-10DD-4CAC-BF0E-1F70F05C1491}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3426F23E-6E76-496D-9CFB-7FC5C0F4C950}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B7B78AB4-8A17-4317-8B47-B0FFF166A666}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{93065876-3D56-4B86-9BF9-3BADC7B1E622}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0D5B15AD-82F1-4A96-8D59-AF380352675D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B2B54E07-0439-4340-8C6A-4C21F058E368}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7A1EE043-2C07-440E-BDD7-1774333FE00A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{366E957C-1AB1-4AE3-B958-509B5BE8D8EA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E4A74DA7-BD09-4AF6-9EBF-6D0A61D546D5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{367BCE76-919D-4C33-94AC-D27D7B31956C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{397EE3CD-5F78-4347-97E0-647AE238C148}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FA669A9D-5772-4ABF-8954-DF15D32485AF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B5237EC6-3FBA-4925-AF3D-A081C1208C34}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4C3062A2-F8E4-4F3C-8C1B-22344E5E3989}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3C3D88C3-C386-402D-AE85-4639A37F4A1E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9873,7 +9873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9B0DB9-6514-4865-ACC3-175AE9D59D24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A209FCC4-BE39-44F0-A6AD-555482D727CB}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11082,18 +11082,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{37DF173F-CCFD-412C-B0DD-147D61D59481}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C172514E-CC72-4450-97BA-51F055FE102A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C0E7A975-EB6A-4CB0-9115-F1D63A479611}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{57ECB1C9-5D19-4DE5-ACE1-58A41DD7D109}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0E3CCF5D-595B-44F6-81BA-5E4818E22C07}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CD3B430F-1B22-4303-A946-9F26C13172E3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{620498EF-F9B2-40CC-BC95-B967769D4EDB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4C74D48A-5565-41CE-85A7-AFE72D18492B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CF3CE6D6-8789-4CC8-9A25-A9C35AE29BCC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{86ED90D5-E0A9-495E-84EA-F09A6C8B4CB1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{68B97299-8707-471A-9E8D-08CF5A9DEC57}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A30F8028-8722-4AE1-81BF-9BCEAB4A212D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AB4826CC-771D-4F0A-B35A-D91C49415BA6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BCF41A76-54B8-47CD-9FE3-076A4EBFACF3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9C8E5FB5-21DE-4634-864F-B6C8FA3D8BB8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{24CC576A-B50E-4C9C-9ED1-172E791DC531}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{597E1423-06BE-44BE-B285-504EB8C3CAF4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{634D6DE1-BF70-4B77-88BF-064ECEF603B4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6956951E-383F-4718-9386-A2D628D7142C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{ED9D9651-134E-49FA-9BE3-22953C3DE2DA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E950D41F-4A7C-44FF-BB80-5AB2588683D3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{085D4E85-9C7E-49B7-80DD-9428EF0B9313}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9F2046F4-715A-467B-89FB-D8B3C3ED1067}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5A975FC9-B084-4856-BB81-A1F3966BEF2A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11106,7 +11106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C65F6F-5B1D-4FA7-80B9-F7AD9140E2CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EC58AA-56A0-424A-8B3F-25E8B92F0EB0}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12315,18 +12315,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8B24A4BE-27D3-4A28-9D4A-F88F8A1203FE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{070D3C07-ACD0-4542-8DA7-92D3B4B484DE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6951C8FA-8B8B-45CF-A431-A885CA0FAF19}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7C195AF4-7195-46DC-8353-3B07BD659008}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C52319B6-2629-4BA6-AC6F-80A79D836F13}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F719E4C1-A4B4-424C-9124-823D8E338555}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FC3ED88B-1AE3-466B-9C86-B2B4CE34B310}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2342B2BF-9F15-438E-8BE7-0FE19BCE2795}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{488E06DB-9440-4346-9DA2-85416AB4AFEF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C899F2E4-98E1-469A-B079-053B077E6DA1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{207BB4E4-62BA-4821-A6D0-1053A1883341}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CB79D2D9-29FC-463F-BD28-748465A28952}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7FFE9AF0-F4D1-448C-9FEE-D6FF287DC568}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6BB49FAF-C329-467A-877C-71835FBAFCA3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5D7B1EF5-3D36-436C-A87D-41B7C4E7CF77}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{994884A7-CF3B-42C6-8E5B-0E6D6D8B7FE4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B4DBD8D3-D0E7-4A0E-8E72-BDFDEE836209}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B45B4114-5145-48BF-A2BC-8A35929CBDCC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{10499963-6C34-4A10-97E2-3248E9F75D57}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5C241365-D213-40A5-B7C6-13BFB98002F4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5E6131AC-E735-40B2-BF38-E2CC939C5D32}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4956BAA4-C74C-4656-9A28-50E1FA94ADAD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{239FDBEA-AD57-41B0-B757-F49DDFBE1E87}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E2F5E42C-C0D9-450D-8F59-A98C8E6D1AAB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12339,7 +12339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0443691-99FB-4DBC-B06F-EEF399347458}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DFCD02-EA00-4C19-98B0-0D4AE1489AAA}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13544,18 +13544,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{28EC46E3-2C37-4095-A2D8-0D711BED99A8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F8CC6703-5F0D-4836-8779-D19C2240EE84}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C2DBD6B5-6EB3-4863-80C6-C6FDD4D43A29}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FD92E509-F639-4ABB-9DF6-111166BB6F1C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6D5CCFEC-E696-4557-A4C6-EE75976D7B12}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{21BB812B-F9A3-410C-BF11-24CFB857864D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6A645AE7-11E8-46F7-A775-6E39EDC16A01}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E0338D46-9C05-4FB2-989B-FC6D6D542BE3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D1462FF6-3536-484A-B467-97D6FC04E2A5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B75429E1-4B4D-4B9F-BFCF-AAE90CEC3E61}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0D21652E-DCE8-49EA-8991-A9C7BF502D69}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{809F5811-4ABB-4E21-99C7-6C1F2A6673FB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{60034080-342A-4235-B15D-12E3EF09401F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7948A05A-6AAC-47A2-BCAF-864D0DA5CEAB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7995D1FC-5749-455D-82F5-CC1FB628DB10}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{86419CEB-AB3D-4654-B3F5-2C204A7F6F23}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5D56C84E-52EB-4B92-8F39-10477AEEE933}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EB1F4A9B-C3E6-4181-88F1-F8F54329FB48}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5D7F146E-320E-4758-A6C3-F623A4EF94DD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{38AC53E0-A70A-4E3E-96CD-AC51CC50D460}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FB698369-B5D3-4463-B334-F70C32F881EE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{32995D17-5A24-4A1F-B6D5-532FB4F93721}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4A380BBF-ABC0-4653-B07D-7E8B6F13B7E5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4D7B6581-88FE-4C39-9F3A-16E6E06C34C8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13568,7 +13568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBD488D-6DC1-489C-AF07-68C15CA5E42E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7123D1F-DCBC-4F77-8376-4FF5EB2475CB}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14765,18 +14765,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8BEA5EE9-5FFE-40E0-8E20-467F189C3423}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DBF6C0CD-E66F-4B59-B36F-7E0A3419855B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D329AF4A-4776-4BCD-B2BC-6B4FC70B1E9B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DF7EBCA8-F2A2-4EF0-89DB-4F4E46F73A66}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{827E158B-27FF-41DD-AA3A-E9D754A33C88}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C847BD8D-147B-4E8A-A14C-F9058A3304E4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9AD114D6-C3FD-499D-90DB-8F460D83BC8D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A7B81C71-3546-430E-96A0-5B80D45F17A0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3CF79370-9B2B-4E58-BA6E-E54BAA6AA04A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A8F050AE-EF04-4F3C-8D5D-43D3CFDA350D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2F340434-8BAD-45B1-8853-667824533A6A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CECF43DF-B786-4A03-81A3-3109ED6561F4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C616F027-28A2-44E3-8BBB-48A07A1DA703}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{18BFC9FE-83A1-4990-BF55-C35EBBB1B683}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5D0868B4-5900-4F25-B4DD-F3EE2D28AC73}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{14BBDCE9-B746-44A4-BF9A-5294CE339607}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0383BE63-4789-4484-8B7D-6461641706BE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5A8A9C2B-5AC7-4964-8BA2-7DFBD212ADF6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B3E711DA-0536-4A37-BB06-32C04BA5CDE9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{10A9F5B2-1D58-4FB0-9A53-581A80BC542D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{65B83C0A-CF25-47D6-A881-AD156734D939}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{4092D7DB-42A0-47C5-8709-F7F09D889F6F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0B8FF25F-E185-4D5A-A1B4-7A45E03E335B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8E77BDD3-1C70-4FD3-A873-9F34C4FE775F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14789,7 +14789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAB2029-D1F0-458A-8407-2A99D68C7043}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB408042-FF96-4021-B10C-612A1421F14B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15982,18 +15982,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{96680CE0-6490-4E64-95F4-59B7D25AB94A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CF6D040F-4E42-415E-A039-1D03DD8C4E10}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{904F519B-F2E2-4C57-9687-958B0318D0A3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A623B7E3-691E-4D22-8E51-17FA560FA7B1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D75F0202-6287-4E5A-92BF-4CB4F8217D72}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{02ACE696-2274-404C-A0BB-E12E4769579D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F27739A3-4FCF-4A62-B4EA-A3C771BBFDEC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{09490DF4-FCA7-41F6-B56F-4004A12C8059}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{36770EE2-4F9D-4FB9-B660-02887056E271}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{675CE224-EC79-42F0-913F-0C795614B514}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AE4C05D7-F269-49A8-95D4-AA1662BF1221}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{71B3E86F-24C9-4239-A96D-CDC9837AC9DA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6AD91055-2FFE-471F-A6DA-B844AED14280}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7C545AEE-4D67-4F27-A98D-47292CA7231C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{013DC82A-30DE-49DC-ABC3-36877DC06C0C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D40D6ACC-E351-42D8-B9F3-B08170ED6ADC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BA8AC285-31F3-4A6E-82A4-FA83ECED397F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F07C6E3F-1601-4EAE-9B91-973CE5A13E39}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{45AA44C2-310A-46CF-BBD5-487D3FCE2706}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{00CA60F2-FC57-449A-AEA5-A0737D2C79ED}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E10031FE-1E82-4D3D-BC17-E8805545275C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{345C0BAF-168F-4D43-AC7D-5788FE64A6A1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AA8E4879-3F90-4160-AD09-83D3AA0189D2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{40471C4D-B2E3-449D-9D34-762E242CCF03}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
